--- a/experiment_results/SBFL_ONLY/Email/1Bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Email/1Bug.xlsx
@@ -28,7 +28,7 @@
     <sheet name="Dice" sheetId="19" r:id="rId19"/>
     <sheet name="Humman" sheetId="20" r:id="rId20"/>
     <sheet name="Wong2" sheetId="21" r:id="rId21"/>
-    <sheet name="Wong3" sheetId="22" r:id="rId22"/>
+    <sheet name="Euclid" sheetId="22" r:id="rId22"/>
     <sheet name="Zoltar" sheetId="23" r:id="rId23"/>
     <sheet name="Rogot2" sheetId="24" r:id="rId24"/>
     <sheet name="Hamming" sheetId="25" r:id="rId25"/>
@@ -9597,10 +9597,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="D2">
-        <v>3.643724696356275</v>
+        <v>99.19028340080972</v>
       </c>
       <c r="E2">
         <v>247</v>
@@ -9614,10 +9614,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="D3">
-        <v>3.643724696356275</v>
+        <v>99.19028340080972</v>
       </c>
       <c r="E3">
         <v>247</v>
@@ -9631,10 +9631,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="D4">
-        <v>4.8582995951417</v>
+        <v>65.58704453441295</v>
       </c>
       <c r="E4">
         <v>247</v>
@@ -9648,10 +9648,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>0.8097165991902834</v>
+        <v>2.42914979757085</v>
       </c>
       <c r="E5">
         <v>247</v>
@@ -9682,10 +9682,10 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>0.8097165991902834</v>
+        <v>17.00404858299595</v>
       </c>
       <c r="E7">
         <v>247</v>
@@ -9699,10 +9699,10 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>0.8097165991902834</v>
+        <v>4.8582995951417</v>
       </c>
       <c r="E8">
         <v>247</v>
@@ -9716,10 +9716,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D9">
-        <v>3.643724696356275</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E9">
         <v>247</v>
@@ -9733,10 +9733,10 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>0.4048582995951417</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E10">
         <v>247</v>
@@ -9767,10 +9767,10 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D12">
-        <v>1.619433198380567</v>
+        <v>23.48178137651822</v>
       </c>
       <c r="E12">
         <v>247</v>
@@ -9784,10 +9784,10 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>0.8097165991902834</v>
+        <v>12.14574898785425</v>
       </c>
       <c r="E13">
         <v>247</v>
@@ -9818,10 +9818,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="D15">
-        <v>1.214574898785425</v>
+        <v>63.96761133603239</v>
       </c>
       <c r="E15">
         <v>247</v>
@@ -9835,10 +9835,10 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D16">
-        <v>3.643724696356275</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="E16">
         <v>247</v>
@@ -9869,10 +9869,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="D18">
-        <v>2.42914979757085</v>
+        <v>44.12955465587044</v>
       </c>
       <c r="E18">
         <v>247</v>
@@ -9886,10 +9886,10 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="D19">
-        <v>0.4048582995951417</v>
+        <v>88.25910931174089</v>
       </c>
       <c r="E19">
         <v>247</v>
@@ -9903,10 +9903,10 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>0.8097165991902834</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E20">
         <v>247</v>
@@ -9920,10 +9920,10 @@
         <v>41</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>0.8097165991902834</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="E21">
         <v>247</v>
@@ -9937,10 +9937,10 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>214</v>
       </c>
       <c r="D22">
-        <v>1.214574898785425</v>
+        <v>86.63967611336032</v>
       </c>
       <c r="E22">
         <v>247</v>
@@ -9954,10 +9954,10 @@
         <v>43</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>214</v>
       </c>
       <c r="D23">
-        <v>1.214574898785425</v>
+        <v>86.63967611336032</v>
       </c>
       <c r="E23">
         <v>247</v>
@@ -9971,10 +9971,10 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>0.8097165991902834</v>
+        <v>6.477732793522267</v>
       </c>
       <c r="E24">
         <v>247</v>
@@ -9988,10 +9988,10 @@
         <v>48</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D25">
-        <v>0.8097165991902834</v>
+        <v>16.59919028340081</v>
       </c>
       <c r="E25">
         <v>247</v>
@@ -10005,10 +10005,10 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>0.8097165991902834</v>
+        <v>24.2914979757085</v>
       </c>
       <c r="E26">
         <v>247</v>
@@ -10022,10 +10022,10 @@
         <v>52</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>0.8097165991902834</v>
+        <v>5.668016194331984</v>
       </c>
       <c r="E27">
         <v>247</v>
@@ -10056,10 +10056,10 @@
         <v>56</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>0.8097165991902834</v>
+        <v>13.76518218623482</v>
       </c>
       <c r="E29">
         <v>247</v>
@@ -10073,10 +10073,10 @@
         <v>58</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D30">
-        <v>0.8097165991902834</v>
+        <v>18.21862348178137</v>
       </c>
       <c r="E30">
         <v>247</v>
@@ -10090,10 +10090,10 @@
         <v>60</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="D31">
-        <v>3.643724696356275</v>
+        <v>91.90283400809717</v>
       </c>
       <c r="E31">
         <v>247</v>
@@ -10107,10 +10107,10 @@
         <v>9</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="D32">
-        <v>10.52631578947368</v>
+        <v>64.77732793522267</v>
       </c>
       <c r="E32">
         <v>247</v>
@@ -10124,10 +10124,10 @@
         <v>63</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>1.619433198380567</v>
+        <v>7.28744939271255</v>
       </c>
       <c r="E33">
         <v>247</v>
@@ -10141,10 +10141,10 @@
         <v>23</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="D34">
-        <v>0.4048582995951417</v>
+        <v>85.82995951417004</v>
       </c>
       <c r="E34">
         <v>247</v>
@@ -10158,10 +10158,10 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="D35">
-        <v>1.214574898785425</v>
+        <v>39.27125506072874</v>
       </c>
       <c r="E35">
         <v>247</v>
